--- a/output/ValueSet-medication.xlsx
+++ b/output/ValueSet-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-19T07:52:08+05:45</t>
+    <t>2025-08-20T08:30:34+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-medication.xlsx
+++ b/output/ValueSet-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-20T08:30:34+05:45</t>
+    <t>2025-08-29T13:54:08+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-medication.xlsx
+++ b/output/ValueSet-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T13:54:08+05:45</t>
+    <t>2025-08-29T16:43:44+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-medication.xlsx
+++ b/output/ValueSet-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-29T16:43:44+05:45</t>
+    <t>2025-08-31T08:04:43+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-medication.xlsx
+++ b/output/ValueSet-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-08-31T08:04:43+05:45</t>
+    <t>2025-09-04T17:51:26+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-medication.xlsx
+++ b/output/ValueSet-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T17:51:26+05:45</t>
+    <t>2025-09-04T23:57:58+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-medication.xlsx
+++ b/output/ValueSet-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-04T23:57:58+05:45</t>
+    <t>2025-09-05T08:09:57+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-medication.xlsx
+++ b/output/ValueSet-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-05T08:09:57+05:45</t>
+    <t>2025-09-07T15:46:36+05:45</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/ValueSet-medication.xlsx
+++ b/output/ValueSet-medication.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-07T15:46:36+05:45</t>
+    <t>2025-09-08T06:44:10+05:45</t>
   </si>
   <si>
     <t>Publisher</t>
